--- a/input/Meeting_notes.xlsx
+++ b/input/Meeting_notes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Responsible</t>
   </si>
@@ -44,6 +44,9 @@
     <t>JSONL</t>
   </si>
   <si>
+    <t>Step ID</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -59,19 +62,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>old Vendor?</t>
+    <t>Old Vendor?</t>
   </si>
   <si>
     <t>Yes/No</t>
   </si>
   <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>Yes: Move to Next Step</t>
-  </si>
-  <si>
-    <t>2b</t>
+    <t>Yes: Proceed</t>
   </si>
   <si>
     <t>No: Initiate Vendor Selection Process</t>
@@ -80,30 +77,33 @@
     <t>Procurement Team</t>
   </si>
   <si>
+    <t>Proceed to 1</t>
+  </si>
+  <si>
     <t>Share Requirement Document with Vendor</t>
   </si>
   <si>
     <t>Data Engineer</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>Vendor Approval?</t>
   </si>
   <si>
     <t>Vendor Team</t>
   </si>
   <si>
-    <t>6a</t>
-  </si>
-  <si>
-    <t>Yes: Proceed to Next Step</t>
-  </si>
-  <si>
-    <t>6b</t>
-  </si>
-  <si>
     <t>No: Schedule Meeting</t>
   </si>
   <si>
+    <t>Ad hoc collection &amp; validation</t>
+  </si>
+  <si>
+    <t>Proceed to 14</t>
+  </si>
+  <si>
     <t>Initiate Data Collection Process</t>
   </si>
   <si>
@@ -119,13 +119,7 @@
     <t>Good/Bad</t>
   </si>
   <si>
-    <t>9a</t>
-  </si>
-  <si>
     <t>Good: Move to Common Data Storage</t>
-  </si>
-  <si>
-    <t>9b</t>
   </si>
   <si>
     <t>Bad: Reprocess Data</t>
@@ -142,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +149,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -214,20 +214,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,241 +528,253 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="3">
-      <c r="A1" s="4">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A4" s="8" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A4" s="6">
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="31.5" customFormat="1" s="3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A8" s="8" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A9" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="31.5" customFormat="1" s="3">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A14" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.5" customFormat="1" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33" customFormat="1" s="3">
       <c r="A15" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Meeting_notes.xlsx
+++ b/input/Meeting_notes.xlsx
@@ -86,7 +86,7 @@
     <t>Data Engineer</t>
   </si>
   <si>
-    <t>*</t>
+    <t/>
   </si>
   <si>
     <t>Vendor Approval?</t>
@@ -136,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,12 +154,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -214,10 +208,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -628,7 +622,7 @@
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -749,30 +743,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
     </row>

--- a/input/Meeting_notes.xlsx
+++ b/input/Meeting_notes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Responsible</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Data Engineer</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Vendor Approval?</t>
@@ -185,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -206,9 +203,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -528,10 +522,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="3">
@@ -622,16 +616,14 @@
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="D7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
@@ -646,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>14</v>
@@ -657,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>14</v>
@@ -671,10 +663,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -683,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -693,10 +685,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
@@ -707,10 +699,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
@@ -721,11 +713,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="3">
@@ -733,38 +725,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>14</v>

--- a/input/Meeting_notes.xlsx
+++ b/input/Meeting_notes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Responsible</t>
   </si>
@@ -62,70 +62,25 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Old Vendor?</t>
-  </si>
-  <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
-    <t>Yes: Proceed</t>
-  </si>
-  <si>
-    <t>No: Initiate Vendor Selection Process</t>
-  </si>
-  <si>
-    <t>Procurement Team</t>
-  </si>
-  <si>
-    <t>Proceed to 1</t>
-  </si>
-  <si>
-    <t>Share Requirement Document with Vendor</t>
+    <t>Condition of Data</t>
+  </si>
+  <si>
+    <t>Good/Bad</t>
+  </si>
+  <si>
+    <t>Good: Proceed</t>
+  </si>
+  <si>
+    <t>Bad: Recollect Data</t>
   </si>
   <si>
     <t>Data Engineer</t>
   </si>
   <si>
-    <t>Vendor Approval?</t>
-  </si>
-  <si>
-    <t>Vendor Team</t>
-  </si>
-  <si>
-    <t>No: Schedule Meeting</t>
-  </si>
-  <si>
-    <t>Ad hoc collection &amp; validation</t>
-  </si>
-  <si>
-    <t>Proceed to 14</t>
-  </si>
-  <si>
-    <t>Initiate Data Collection Process</t>
-  </si>
-  <si>
-    <t>Lead Data Engineer</t>
-  </si>
-  <si>
-    <t>Submission and Validation of Data</t>
-  </si>
-  <si>
-    <t>Data Validation Outcome</t>
-  </si>
-  <si>
-    <t>Good/Bad</t>
-  </si>
-  <si>
-    <t>Good: Move to Common Data Storage</t>
-  </si>
-  <si>
-    <t>Bad: Reprocess Data</t>
-  </si>
-  <si>
-    <t>Initiate Data Storage Process</t>
-  </si>
-  <si>
-    <t>Assigned Data Engineer</t>
+    <t>Proceed to 2</t>
+  </si>
+  <si>
+    <t>Send Data</t>
   </si>
 </sst>
 </file>
@@ -516,7 +471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -556,7 +511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -575,12 +530,8 @@
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A5" s="6">
@@ -592,13 +543,11 @@
       <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="D5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>20</v>
@@ -606,161 +555,93 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33" customFormat="1" s="3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="D15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33" customFormat="1" s="3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33" customFormat="1" s="3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Meeting_notes.xlsx
+++ b/input/Meeting_notes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Responsible</t>
   </si>
@@ -77,10 +77,19 @@
     <t>Data Engineer</t>
   </si>
   <si>
+    <t>Validate Data</t>
+  </si>
+  <si>
     <t>Proceed to 2</t>
   </si>
   <si>
     <t>Send Data</t>
+  </si>
+  <si>
+    <t>Vendor Team</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -158,6 +167,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -477,10 +489,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="3">
@@ -547,17 +559,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A6" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A7" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>21</v>
@@ -566,19 +580,29 @@
       <c r="D7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="3">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -602,13 +626,13 @@
       <c r="D13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -632,13 +656,13 @@
       <c r="D18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33" customFormat="1" s="3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
